--- a/public/data-baoton.xlsx
+++ b/public/data-baoton.xlsx
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,22 +116,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,24 +368,24 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="208" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -375,10 +393,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -386,10 +404,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -397,10 +415,10 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -408,10 +426,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -419,10 +437,10 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -430,10 +448,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -441,10 +459,10 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -452,10 +470,10 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -463,10 +481,10 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -474,10 +492,10 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -485,10 +503,10 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -496,10 +514,10 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -507,10 +525,10 @@
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -518,10 +536,10 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -529,10 +547,10 @@
       <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -540,10 +558,10 @@
       <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -551,10 +569,10 @@
       <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -562,10 +580,10 @@
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -573,10 +591,10 @@
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -584,10 +602,10 @@
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -595,10 +613,10 @@
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -606,10 +624,10 @@
       <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -617,10 +635,10 @@
       <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -628,10 +646,10 @@
       <c r="A25" s="1">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -639,10 +657,10 @@
       <c r="A26" s="1">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -650,10 +668,10 @@
       <c r="A27" s="1">
         <v>7</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -661,10 +679,10 @@
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -672,10 +690,10 @@
       <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -683,10 +701,10 @@
       <c r="A30" s="1">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -694,10 +712,10 @@
       <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -705,10 +723,10 @@
       <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -716,10 +734,10 @@
       <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -727,10 +745,10 @@
       <c r="A34" s="1">
         <v>9</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -738,10 +756,10 @@
       <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -749,10 +767,10 @@
       <c r="A36" s="1">
         <v>9</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -760,10 +778,10 @@
       <c r="A37" s="1">
         <v>9</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -771,10 +789,10 @@
       <c r="A38" s="1">
         <v>10</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -782,10 +800,10 @@
       <c r="A39" s="1">
         <v>10</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -793,10 +811,10 @@
       <c r="A40" s="1">
         <v>10</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -804,10 +822,10 @@
       <c r="A41" s="1">
         <v>10</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -815,10 +833,10 @@
       <c r="A42" s="1">
         <v>11</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -826,10 +844,10 @@
       <c r="A43" s="1">
         <v>11</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,10 +855,10 @@
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -848,10 +866,10 @@
       <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -859,10 +877,10 @@
       <c r="A46" s="1">
         <v>12</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -870,10 +888,10 @@
       <c r="A47" s="1">
         <v>12</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -881,10 +899,10 @@
       <c r="A48" s="1">
         <v>12</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -892,10 +910,10 @@
       <c r="A49" s="1">
         <v>12</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -903,10 +921,10 @@
       <c r="A50" s="1">
         <v>13</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -914,10 +932,10 @@
       <c r="A51" s="1">
         <v>13</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -925,10 +943,10 @@
       <c r="A52" s="1">
         <v>13</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -936,10 +954,10 @@
       <c r="A53" s="1">
         <v>13</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -947,10 +965,10 @@
       <c r="A54" s="1">
         <v>14</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -958,10 +976,10 @@
       <c r="A55" s="1">
         <v>14</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -969,10 +987,10 @@
       <c r="A56" s="1">
         <v>14</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -980,10 +998,10 @@
       <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -991,10 +1009,10 @@
       <c r="A58" s="1">
         <v>15</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1002,10 +1020,10 @@
       <c r="A59" s="1">
         <v>15</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1013,10 +1031,10 @@
       <c r="A60" s="1">
         <v>15</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1024,10 +1042,10 @@
       <c r="A61" s="1">
         <v>15</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1035,10 +1053,10 @@
       <c r="A62" s="1">
         <v>16</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1046,10 +1064,10 @@
       <c r="A63" s="1">
         <v>16</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1057,10 +1075,10 @@
       <c r="A64" s="1">
         <v>16</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1068,10 +1086,10 @@
       <c r="A65" s="1">
         <v>16</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1079,10 +1097,10 @@
       <c r="A66" s="1">
         <v>17</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1090,10 +1108,10 @@
       <c r="A67" s="1">
         <v>17</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1101,10 +1119,10 @@
       <c r="A68" s="1">
         <v>17</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1112,10 +1130,10 @@
       <c r="A69" s="1">
         <v>17</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1123,10 +1141,10 @@
       <c r="A70" s="1">
         <v>18</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1134,10 +1152,10 @@
       <c r="A71" s="1">
         <v>18</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1145,10 +1163,10 @@
       <c r="A72" s="1">
         <v>18</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1156,10 +1174,10 @@
       <c r="A73" s="1">
         <v>18</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1167,10 +1185,10 @@
       <c r="A74" s="1">
         <v>19</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1178,10 +1196,10 @@
       <c r="A75" s="1">
         <v>19</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1189,10 +1207,10 @@
       <c r="A76" s="1">
         <v>19</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1200,10 +1218,10 @@
       <c r="A77" s="1">
         <v>19</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1211,10 +1229,10 @@
       <c r="A78" s="1">
         <v>20</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1222,10 +1240,10 @@
       <c r="A79" s="1">
         <v>20</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1233,10 +1251,10 @@
       <c r="A80" s="1">
         <v>20</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1244,10 +1262,10 @@
       <c r="A81" s="1">
         <v>20</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1255,10 +1273,10 @@
       <c r="A82" s="1">
         <v>21</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1266,10 +1284,10 @@
       <c r="A83" s="1">
         <v>21</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1277,10 +1295,10 @@
       <c r="A84" s="1">
         <v>21</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1288,10 +1306,10 @@
       <c r="A85" s="1">
         <v>21</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1299,10 +1317,10 @@
       <c r="A86" s="1">
         <v>22</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1310,10 +1328,10 @@
       <c r="A87" s="1">
         <v>22</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1321,10 +1339,10 @@
       <c r="A88" s="1">
         <v>22</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1332,10 +1350,10 @@
       <c r="A89" s="1">
         <v>22</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1343,10 +1361,10 @@
       <c r="A90" s="1">
         <v>23</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1354,10 +1372,10 @@
       <c r="A91" s="1">
         <v>23</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1365,10 +1383,10 @@
       <c r="A92" s="1">
         <v>23</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1376,10 +1394,10 @@
       <c r="A93" s="1">
         <v>23</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1387,10 +1405,10 @@
       <c r="A94" s="1">
         <v>24</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1398,10 +1416,10 @@
       <c r="A95" s="1">
         <v>24</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1409,10 +1427,10 @@
       <c r="A96" s="1">
         <v>24</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1420,10 +1438,10 @@
       <c r="A97" s="1">
         <v>24</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1431,10 +1449,10 @@
       <c r="A98" s="1">
         <v>25</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1442,10 +1460,10 @@
       <c r="A99" s="1">
         <v>25</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1453,10 +1471,10 @@
       <c r="A100" s="1">
         <v>25</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1464,10 +1482,10 @@
       <c r="A101" s="1">
         <v>25</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1475,10 +1493,10 @@
       <c r="A102" s="1">
         <v>26</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1486,10 +1504,10 @@
       <c r="A103" s="1">
         <v>26</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1497,10 +1515,10 @@
       <c r="A104" s="1">
         <v>26</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1508,10 +1526,10 @@
       <c r="A105" s="1">
         <v>26</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1519,10 +1537,10 @@
       <c r="A106" s="1">
         <v>27</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1530,10 +1548,10 @@
       <c r="A107" s="1">
         <v>27</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1541,10 +1559,10 @@
       <c r="A108" s="1">
         <v>27</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1552,10 +1570,10 @@
       <c r="A109" s="1">
         <v>27</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1563,10 +1581,10 @@
       <c r="A110" s="1">
         <v>28</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1574,10 +1592,10 @@
       <c r="A111" s="1">
         <v>28</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1585,10 +1603,10 @@
       <c r="A112" s="1">
         <v>28</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1596,10 +1614,10 @@
       <c r="A113" s="1">
         <v>28</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1607,10 +1625,10 @@
       <c r="A114" s="1">
         <v>29</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1618,10 +1636,10 @@
       <c r="A115" s="1">
         <v>29</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1629,10 +1647,10 @@
       <c r="A116" s="1">
         <v>29</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1640,10 +1658,10 @@
       <c r="A117" s="1">
         <v>29</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1651,10 +1669,10 @@
       <c r="A118" s="1">
         <v>30</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1662,10 +1680,10 @@
       <c r="A119" s="1">
         <v>30</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1673,10 +1691,10 @@
       <c r="A120" s="1">
         <v>30</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1684,10 +1702,10 @@
       <c r="A121" s="1">
         <v>30</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>6</v>
       </c>
     </row>
